--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/NotificationSettingType.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/NotificationSettingType.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f7d33519bf48a6/Desktop/123/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f7d33519bf48a6/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C8B188E-5179-4228-A36B-E46C3C86745D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{8C8B188E-5179-4228-A36B-E46C3C86745D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{202F099B-0A39-471B-8686-0535A6186E99}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="19956" windowHeight="9072" xr2:uid="{AC44523D-A978-4B15-A881-F7950BB825FA}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19956" windowHeight="9072" xr2:uid="{AC44523D-A978-4B15-A881-F7950BB825FA}"/>
   </bookViews>
   <sheets>
     <sheet name="NotificationSettingType" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
-  <si>
-    <t>Lưu cài đặt người dùng</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>null</t>
   </si>
@@ -75,9 +72,6 @@
     <t>primary_key</t>
   </si>
   <si>
-    <t>NST00001</t>
-  </si>
-  <si>
     <t>notification_setting_type_id</t>
   </si>
   <si>
@@ -100,6 +94,31 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>Tồn tại</t>
+  </si>
+  <si>
+    <t>NI00000</t>
+  </si>
+  <si>
+    <t>NST00000</t>
+  </si>
+  <si>
+    <t>NU00000</t>
+  </si>
+  <si>
+    <t>NS00000</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>TRUE : Đã lưu
+FALSE : Chưa lưu</t>
   </si>
 </sst>
 </file>
@@ -509,7 +528,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -519,25 +538,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -545,22 +564,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -568,22 +587,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -591,22 +610,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,22 +633,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -637,45 +656,45 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/NotificationSettingType.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/NotificationSettingType.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f7d33519bf48a6/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\To-Do-App\ToDoApp-Doc\Document\Diagram\Thiết Kế Phần Mềm\Thiết kế lưu trữ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{8C8B188E-5179-4228-A36B-E46C3C86745D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{202F099B-0A39-471B-8686-0535A6186E99}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27FEBD6-0B5A-48A9-82BF-E424AC6E6460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="19956" windowHeight="9072" xr2:uid="{AC44523D-A978-4B15-A881-F7950BB825FA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AC44523D-A978-4B15-A881-F7950BB825FA}"/>
   </bookViews>
   <sheets>
     <sheet name="NotificationSettingType" sheetId="1" r:id="rId1"/>
@@ -528,11 +528,15 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
     <col min="27" max="27" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
